--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H2">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I2">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J2">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>408.0701608473333</v>
+        <v>449.3055935276353</v>
       </c>
       <c r="R2">
-        <v>408.0701608473333</v>
+        <v>4043.750341748718</v>
       </c>
       <c r="S2">
-        <v>0.02069386731913593</v>
+        <v>0.02131608061731382</v>
       </c>
       <c r="T2">
-        <v>0.02069386731913593</v>
+        <v>0.02131608061731381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H3">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I3">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J3">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>1978.614454237811</v>
+        <v>2019.973379048074</v>
       </c>
       <c r="R3">
-        <v>1978.614454237811</v>
+        <v>18179.76041143267</v>
       </c>
       <c r="S3">
-        <v>0.1003385910567476</v>
+        <v>0.09583213744248256</v>
       </c>
       <c r="T3">
-        <v>0.1003385910567476</v>
+        <v>0.09583213744248256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H4">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I4">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J4">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>2189.987510795832</v>
+        <v>2230.362274752469</v>
       </c>
       <c r="R4">
-        <v>2189.987510795832</v>
+        <v>20073.26047277222</v>
       </c>
       <c r="S4">
-        <v>0.1110576448051749</v>
+        <v>0.1058134657998974</v>
       </c>
       <c r="T4">
-        <v>0.1110576448051749</v>
+        <v>0.1058134657998974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H5">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I5">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J5">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>1885.622997685312</v>
+        <v>1986.857256519703</v>
       </c>
       <c r="R5">
-        <v>1885.622997685312</v>
+        <v>17881.71530867733</v>
       </c>
       <c r="S5">
-        <v>0.09562285085237984</v>
+        <v>0.09426103317020915</v>
       </c>
       <c r="T5">
-        <v>0.09562285085237984</v>
+        <v>0.09426103317020915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H6">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I6">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J6">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>317.8127389002718</v>
+        <v>355.7338785400669</v>
       </c>
       <c r="R6">
-        <v>317.8127389002718</v>
+        <v>3201.604906860602</v>
       </c>
       <c r="S6">
-        <v>0.01611677422695434</v>
+        <v>0.01687682535562155</v>
       </c>
       <c r="T6">
-        <v>0.01611677422695434</v>
+        <v>0.01687682535562155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H7">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I7">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J7">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>425.6075575554768</v>
+        <v>461.9161627018976</v>
       </c>
       <c r="R7">
-        <v>425.6075575554768</v>
+        <v>4157.245464317079</v>
       </c>
       <c r="S7">
-        <v>0.02158321575825678</v>
+        <v>0.02191435473858236</v>
       </c>
       <c r="T7">
-        <v>0.02158321575825678</v>
+        <v>0.02191435473858236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H8">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I8">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J8">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>2063.648230156107</v>
+        <v>2076.667563125903</v>
       </c>
       <c r="R8">
-        <v>2063.648230156107</v>
+        <v>18690.00806813313</v>
       </c>
       <c r="S8">
-        <v>0.1046507850011529</v>
+        <v>0.09852183865195907</v>
       </c>
       <c r="T8">
-        <v>0.1046507850011529</v>
+        <v>0.09852183865195906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H9">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I9">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J9">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>2284.105345050013</v>
+        <v>2292.961401392768</v>
       </c>
       <c r="R9">
-        <v>2284.105345050013</v>
+        <v>20636.65261253491</v>
       </c>
       <c r="S9">
-        <v>0.1158305053602721</v>
+        <v>0.1087833109326088</v>
       </c>
       <c r="T9">
-        <v>0.1158305053602721</v>
+        <v>0.1087833109326088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H10">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I10">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J10">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>1966.660333235013</v>
+        <v>2042.621977087745</v>
       </c>
       <c r="R10">
-        <v>1966.660333235013</v>
+        <v>18383.5977937897</v>
       </c>
       <c r="S10">
-        <v>0.09973237914104392</v>
+        <v>0.09690663851399672</v>
       </c>
       <c r="T10">
-        <v>0.09973237914104392</v>
+        <v>0.09690663851399671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H11">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I11">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J11">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>331.4711942732949</v>
+        <v>365.7181893244867</v>
       </c>
       <c r="R11">
-        <v>331.4711942732949</v>
+        <v>3291.463703920381</v>
       </c>
       <c r="S11">
-        <v>0.01680941556756788</v>
+        <v>0.01735050379776612</v>
       </c>
       <c r="T11">
-        <v>0.01680941556756788</v>
+        <v>0.01735050379776612</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H12">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I12">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J12">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>110.1101737803879</v>
+        <v>119.6671740259423</v>
       </c>
       <c r="R12">
-        <v>110.1101737803879</v>
+        <v>1077.004566233481</v>
       </c>
       <c r="S12">
-        <v>0.00558385676121714</v>
+        <v>0.00567728326895671</v>
       </c>
       <c r="T12">
-        <v>0.00558385676121714</v>
+        <v>0.005677283268956709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H13">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I13">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J13">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>533.8924584638287</v>
+        <v>537.9957635970293</v>
       </c>
       <c r="R13">
-        <v>533.8924584638287</v>
+        <v>4841.961872373264</v>
       </c>
       <c r="S13">
-        <v>0.02707451011658541</v>
+        <v>0.02552374427072924</v>
       </c>
       <c r="T13">
-        <v>0.02707451011658541</v>
+        <v>0.02552374427072924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H14">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I14">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J14">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>590.927562284622</v>
+        <v>594.0303310674988</v>
       </c>
       <c r="R14">
-        <v>590.927562284622</v>
+        <v>5346.27297960749</v>
       </c>
       <c r="S14">
-        <v>0.02996684820999039</v>
+        <v>0.0281821517661244</v>
       </c>
       <c r="T14">
-        <v>0.02996684820999039</v>
+        <v>0.0281821517661244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H15">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I15">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J15">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>508.8004364943082</v>
+        <v>529.1756802178019</v>
       </c>
       <c r="R15">
-        <v>508.8004364943082</v>
+        <v>4762.581121960216</v>
       </c>
       <c r="S15">
-        <v>0.0258020549771851</v>
+        <v>0.02510529942812908</v>
       </c>
       <c r="T15">
-        <v>0.0258020549771851</v>
+        <v>0.02510529942812908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H16">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I16">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J16">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>85.75588040366924</v>
+        <v>94.74546625593987</v>
       </c>
       <c r="R16">
-        <v>85.75588040366924</v>
+        <v>852.709196303459</v>
       </c>
       <c r="S16">
-        <v>0.004348812976730094</v>
+        <v>0.00449494069499578</v>
       </c>
       <c r="T16">
-        <v>0.004348812976730094</v>
+        <v>0.004494940694995779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.62415687119206</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H17">
-        <v>4.62415687119206</v>
+        <v>19.698745</v>
       </c>
       <c r="I17">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J17">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>78.35123479494963</v>
+        <v>120.7039089637883</v>
       </c>
       <c r="R17">
-        <v>78.35123479494963</v>
+        <v>1086.335180674095</v>
       </c>
       <c r="S17">
-        <v>0.003973311975985782</v>
+        <v>0.00572646833549551</v>
       </c>
       <c r="T17">
-        <v>0.003973311975985782</v>
+        <v>0.005726468335495507</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.62415687119206</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H18">
-        <v>4.62415687119206</v>
+        <v>19.698745</v>
       </c>
       <c r="I18">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J18">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>379.9025279152089</v>
+        <v>542.6566825923527</v>
       </c>
       <c r="R18">
-        <v>379.9025279152089</v>
+        <v>4883.910143331174</v>
       </c>
       <c r="S18">
-        <v>0.01926544320358395</v>
+        <v>0.02574486888276675</v>
       </c>
       <c r="T18">
-        <v>0.01926544320358395</v>
+        <v>0.02574486888276675</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.62415687119206</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H19">
-        <v>4.62415687119206</v>
+        <v>19.698745</v>
       </c>
       <c r="I19">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J19">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>420.487068449403</v>
+        <v>599.1767047775055</v>
       </c>
       <c r="R19">
-        <v>420.487068449403</v>
+        <v>5392.59034299755</v>
       </c>
       <c r="S19">
-        <v>0.02132354785715334</v>
+        <v>0.02842630745541382</v>
       </c>
       <c r="T19">
-        <v>0.02132354785715334</v>
+        <v>0.02842630745541381</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.62415687119206</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H20">
-        <v>4.62415687119206</v>
+        <v>19.698745</v>
       </c>
       <c r="I20">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J20">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>362.0477662949516</v>
+        <v>533.7601865404905</v>
       </c>
       <c r="R20">
-        <v>362.0477662949516</v>
+        <v>4803.841678864414</v>
       </c>
       <c r="S20">
-        <v>0.01836000070022327</v>
+        <v>0.02532279884895258</v>
       </c>
       <c r="T20">
-        <v>0.01836000070022327</v>
+        <v>0.02532279884895257</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.62415687119206</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H21">
-        <v>4.62415687119206</v>
+        <v>19.698745</v>
       </c>
       <c r="I21">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J21">
-        <v>0.06601679405442318</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>61.02141963699511</v>
+        <v>95.56629231680056</v>
       </c>
       <c r="R21">
-        <v>61.02141963699511</v>
+        <v>860.096630851205</v>
       </c>
       <c r="S21">
-        <v>0.003094490317476847</v>
+        <v>0.004533882552693846</v>
       </c>
       <c r="T21">
-        <v>0.003094490317476847</v>
+        <v>0.004533882552693845</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.720243404417779</v>
+        <v>10.51178733333333</v>
       </c>
       <c r="H22">
-        <v>9.720243404417779</v>
+        <v>31.535362</v>
       </c>
       <c r="I22">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="J22">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>164.6987968743515</v>
+        <v>193.2326888838913</v>
       </c>
       <c r="R22">
-        <v>164.6987968743515</v>
+        <v>1739.094199955022</v>
       </c>
       <c r="S22">
-        <v>0.008352130043182065</v>
+        <v>0.009167398833854054</v>
       </c>
       <c r="T22">
-        <v>0.008352130043182065</v>
+        <v>0.00916739883385405</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.720243404417779</v>
+        <v>10.51178733333333</v>
       </c>
       <c r="H23">
-        <v>9.720243404417779</v>
+        <v>31.535362</v>
       </c>
       <c r="I23">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="J23">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>798.5769393540274</v>
+        <v>868.7291970767142</v>
       </c>
       <c r="R23">
-        <v>798.5769393540274</v>
+        <v>7818.562773690429</v>
       </c>
       <c r="S23">
-        <v>0.0404970684276434</v>
+        <v>0.04121449157601589</v>
       </c>
       <c r="T23">
-        <v>0.0404970684276434</v>
+        <v>0.04121449157601589</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.720243404417779</v>
+        <v>10.51178733333333</v>
       </c>
       <c r="H24">
-        <v>9.720243404417779</v>
+        <v>31.535362</v>
       </c>
       <c r="I24">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="J24">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>883.8879751682449</v>
+        <v>959.2110709147088</v>
       </c>
       <c r="R24">
-        <v>883.8879751682449</v>
+        <v>8632.89963823238</v>
       </c>
       <c r="S24">
-        <v>0.04482332264905398</v>
+        <v>0.04550715773668696</v>
       </c>
       <c r="T24">
-        <v>0.04482332264905398</v>
+        <v>0.04550715773668696</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.720243404417779</v>
+        <v>10.51178733333333</v>
       </c>
       <c r="H25">
-        <v>9.720243404417779</v>
+        <v>31.535362</v>
       </c>
       <c r="I25">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="J25">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>761.0452046592185</v>
+        <v>854.4869586230948</v>
       </c>
       <c r="R25">
-        <v>761.0452046592185</v>
+        <v>7690.382627607853</v>
       </c>
       <c r="S25">
-        <v>0.03859377626724955</v>
+        <v>0.04053880734812815</v>
       </c>
       <c r="T25">
-        <v>0.03859377626724955</v>
+        <v>0.04053880734812815</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.720243404417779</v>
+        <v>10.51178733333333</v>
       </c>
       <c r="H26">
-        <v>9.720243404417779</v>
+        <v>31.535362</v>
       </c>
       <c r="I26">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="J26">
-        <v>0.1387710938151824</v>
+        <v>0.1436860654753049</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>128.2705298018588</v>
+        <v>152.9903363492509</v>
       </c>
       <c r="R26">
-        <v>128.2705298018588</v>
+        <v>1376.913027143258</v>
       </c>
       <c r="S26">
-        <v>0.006504796428053466</v>
+        <v>0.007258209980619807</v>
       </c>
       <c r="T26">
-        <v>0.006504796428053466</v>
+        <v>0.007258209980619806</v>
       </c>
     </row>
   </sheetData>
